--- a/dashboard.xlsx
+++ b/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akira\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9FE43E-2762-40B5-95F0-85230AD63BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5AC762-5989-45B4-A258-CCACFD4CF357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" tabRatio="0" firstSheet="3" activeTab="3" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -1683,7 +1683,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[0120950e-64c8-4092-a257-ba22ed198c69.xlsx]C̳álculos!tbl_annual_total</c:name>
+    <c:name>[dashboard.xlsx]C̳álculos!tbl_annual_total</c:name>
     <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
@@ -1960,10 +1960,10 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>806</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1502</c:v>
+                  <c:v>1537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2125,7 +2125,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[0120950e-64c8-4092-a257-ba22ed198c69.xlsx]C̳álculos!Tabela dinâmica1</c:name>
+    <c:name>[dashboard.xlsx]C̳álculos!Tabela dinâmica1</c:name>
     <c:fmtId val="8"/>
   </c:pivotSource>
   <c:chart>
@@ -2518,7 +2518,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>60</c:v>
@@ -4673,7 +4673,7 @@
           <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr algn="ctr"/>
+            <a:pPr algn="r"/>
             <a:fld id="{B013F77A-435A-4ABA-88A6-D9C44614F925}" type="TxLink">
               <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200">
                 <a:solidFill>
@@ -4681,8 +4681,8 @@
                 </a:solidFill>
                 <a:latin typeface="Aptos Narrow"/>
               </a:rPr>
-              <a:pPr algn="ctr"/>
-              <a:t> R$ 990,00 </a:t>
+              <a:pPr algn="r"/>
+              <a:t> R$ 600,00 </a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="3600" kern="1200">
               <a:solidFill>
@@ -4937,7 +4937,7 @@
             <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr algn="ctr"/>
+              <a:pPr algn="r"/>
               <a:fld id="{E52E6073-EB91-45C9-81B2-5596C04756C0}" type="TxLink">
                 <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200">
                   <a:solidFill>
@@ -4945,8 +4945,8 @@
                   </a:solidFill>
                   <a:latin typeface="Aptos Narrow"/>
                 </a:rPr>
-                <a:pPr algn="ctr"/>
-                <a:t> R$ 1.140,00 </a:t>
+                <a:pPr algn="r"/>
+                <a:t> R$ 940,00 </a:t>
               </a:fld>
               <a:endParaRPr lang="pt-BR" sz="3600" kern="1200">
                 <a:solidFill>
@@ -11172,7 +11172,1063 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B2D2F6AF-C2B4-4C26-A485-2D0090564D9F}" name="Tabela dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{84005490-F2B6-45E1-A8C2-E59BAE3E3FBC}" name="tbl_easeasonpass_total" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="B21:C25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="15">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="281">
+        <item x="87"/>
+        <item x="61"/>
+        <item x="206"/>
+        <item x="275"/>
+        <item x="112"/>
+        <item x="228"/>
+        <item x="35"/>
+        <item x="253"/>
+        <item x="136"/>
+        <item x="3"/>
+        <item x="161"/>
+        <item x="185"/>
+        <item x="7"/>
+        <item x="88"/>
+        <item x="16"/>
+        <item x="186"/>
+        <item x="162"/>
+        <item x="276"/>
+        <item x="36"/>
+        <item x="254"/>
+        <item x="207"/>
+        <item x="137"/>
+        <item x="62"/>
+        <item x="9"/>
+        <item x="113"/>
+        <item x="229"/>
+        <item x="163"/>
+        <item x="15"/>
+        <item x="6"/>
+        <item x="63"/>
+        <item x="37"/>
+        <item x="230"/>
+        <item x="255"/>
+        <item x="277"/>
+        <item x="138"/>
+        <item x="89"/>
+        <item x="114"/>
+        <item x="17"/>
+        <item x="187"/>
+        <item x="90"/>
+        <item x="139"/>
+        <item x="18"/>
+        <item x="38"/>
+        <item x="64"/>
+        <item x="231"/>
+        <item x="208"/>
+        <item x="256"/>
+        <item x="278"/>
+        <item x="13"/>
+        <item x="115"/>
+        <item x="164"/>
+        <item x="91"/>
+        <item x="188"/>
+        <item x="19"/>
+        <item x="209"/>
+        <item x="116"/>
+        <item x="257"/>
+        <item x="279"/>
+        <item x="140"/>
+        <item x="65"/>
+        <item x="39"/>
+        <item x="92"/>
+        <item x="210"/>
+        <item x="141"/>
+        <item x="232"/>
+        <item x="258"/>
+        <item x="40"/>
+        <item x="66"/>
+        <item x="117"/>
+        <item x="5"/>
+        <item x="165"/>
+        <item x="14"/>
+        <item x="67"/>
+        <item x="211"/>
+        <item x="189"/>
+        <item x="259"/>
+        <item x="20"/>
+        <item x="93"/>
+        <item x="233"/>
+        <item x="41"/>
+        <item x="142"/>
+        <item x="166"/>
+        <item x="143"/>
+        <item x="94"/>
+        <item x="212"/>
+        <item x="167"/>
+        <item x="68"/>
+        <item x="42"/>
+        <item x="234"/>
+        <item x="118"/>
+        <item x="21"/>
+        <item x="260"/>
+        <item x="144"/>
+        <item x="190"/>
+        <item x="213"/>
+        <item x="168"/>
+        <item x="43"/>
+        <item x="235"/>
+        <item x="119"/>
+        <item x="95"/>
+        <item x="22"/>
+        <item x="69"/>
+        <item x="145"/>
+        <item x="191"/>
+        <item x="169"/>
+        <item x="120"/>
+        <item x="261"/>
+        <item x="96"/>
+        <item x="236"/>
+        <item x="0"/>
+        <item x="23"/>
+        <item x="44"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="97"/>
+        <item x="170"/>
+        <item x="262"/>
+        <item x="237"/>
+        <item x="146"/>
+        <item x="45"/>
+        <item x="24"/>
+        <item x="121"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="192"/>
+        <item x="72"/>
+        <item x="263"/>
+        <item x="171"/>
+        <item x="238"/>
+        <item x="46"/>
+        <item x="98"/>
+        <item x="214"/>
+        <item x="147"/>
+        <item x="193"/>
+        <item x="264"/>
+        <item x="99"/>
+        <item x="172"/>
+        <item x="47"/>
+        <item x="122"/>
+        <item x="11"/>
+        <item x="239"/>
+        <item x="148"/>
+        <item x="215"/>
+        <item x="1"/>
+        <item x="25"/>
+        <item x="73"/>
+        <item x="123"/>
+        <item x="216"/>
+        <item x="265"/>
+        <item x="149"/>
+        <item x="240"/>
+        <item x="194"/>
+        <item x="26"/>
+        <item x="48"/>
+        <item x="173"/>
+        <item x="100"/>
+        <item x="74"/>
+        <item x="195"/>
+        <item x="174"/>
+        <item x="124"/>
+        <item x="241"/>
+        <item x="266"/>
+        <item x="49"/>
+        <item x="101"/>
+        <item x="150"/>
+        <item x="217"/>
+        <item x="75"/>
+        <item x="27"/>
+        <item x="151"/>
+        <item x="102"/>
+        <item x="218"/>
+        <item x="242"/>
+        <item x="267"/>
+        <item x="125"/>
+        <item x="50"/>
+        <item x="28"/>
+        <item x="76"/>
+        <item x="196"/>
+        <item x="175"/>
+        <item x="4"/>
+        <item x="126"/>
+        <item x="219"/>
+        <item x="268"/>
+        <item x="77"/>
+        <item x="51"/>
+        <item x="152"/>
+        <item x="243"/>
+        <item x="127"/>
+        <item x="103"/>
+        <item x="244"/>
+        <item x="29"/>
+        <item x="197"/>
+        <item x="176"/>
+        <item x="78"/>
+        <item x="269"/>
+        <item x="52"/>
+        <item x="153"/>
+        <item x="10"/>
+        <item x="79"/>
+        <item x="104"/>
+        <item x="30"/>
+        <item x="177"/>
+        <item x="220"/>
+        <item x="245"/>
+        <item x="270"/>
+        <item x="128"/>
+        <item x="8"/>
+        <item x="154"/>
+        <item x="198"/>
+        <item x="53"/>
+        <item x="31"/>
+        <item x="271"/>
+        <item x="246"/>
+        <item x="105"/>
+        <item x="178"/>
+        <item x="221"/>
+        <item x="80"/>
+        <item x="129"/>
+        <item x="155"/>
+        <item x="54"/>
+        <item x="199"/>
+        <item x="247"/>
+        <item x="55"/>
+        <item x="106"/>
+        <item x="179"/>
+        <item x="81"/>
+        <item x="156"/>
+        <item x="222"/>
+        <item x="200"/>
+        <item x="130"/>
+        <item x="248"/>
+        <item x="56"/>
+        <item x="223"/>
+        <item x="157"/>
+        <item x="131"/>
+        <item x="180"/>
+        <item x="201"/>
+        <item x="82"/>
+        <item x="107"/>
+        <item x="32"/>
+        <item x="158"/>
+        <item x="132"/>
+        <item x="202"/>
+        <item x="83"/>
+        <item x="181"/>
+        <item x="224"/>
+        <item x="249"/>
+        <item x="57"/>
+        <item x="108"/>
+        <item x="203"/>
+        <item x="133"/>
+        <item x="225"/>
+        <item x="109"/>
+        <item x="272"/>
+        <item x="182"/>
+        <item x="84"/>
+        <item x="250"/>
+        <item x="58"/>
+        <item x="110"/>
+        <item x="59"/>
+        <item x="183"/>
+        <item x="226"/>
+        <item x="85"/>
+        <item x="273"/>
+        <item x="159"/>
+        <item x="33"/>
+        <item x="204"/>
+        <item x="251"/>
+        <item x="134"/>
+        <item x="205"/>
+        <item x="60"/>
+        <item x="184"/>
+        <item x="160"/>
+        <item x="274"/>
+        <item x="227"/>
+        <item x="135"/>
+        <item x="86"/>
+        <item x="34"/>
+        <item x="252"/>
+        <item x="111"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="295">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="6" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Soma de EA Play Season Pass" fld="8" baseField="2" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B2D2F6AF-C2B4-4C26-A485-2D0090564D9F}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
   <location ref="B43:C46" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="15">
     <pivotField dataField="1" showAll="0"/>
@@ -11778,9 +12834,9 @@
     <pivotField numFmtId="44" showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
-        <item h="1" x="1"/>
+        <item x="1"/>
         <item h="1" x="0"/>
-        <item x="2"/>
+        <item h="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -12260,8 +13316,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6E786295-8353-4BE2-9C12-200F15B8EF15}" name="tbl_annual_total" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6E786295-8353-4BE2-9C12-200F15B8EF15}" name="tbl_annual_total" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="B11:C14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
@@ -12860,9 +13916,9 @@
     <pivotField numFmtId="44" showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
-        <item h="1" x="1"/>
+        <item x="1"/>
         <item h="1" x="0"/>
-        <item x="2"/>
+        <item h="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -13329,8 +14385,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{22E17BE4-EBDD-4E6C-AABB-48C907DB6551}" name="Tabela dinâmica9" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{22E17BE4-EBDD-4E6C-AABB-48C907DB6551}" name="Tabela dinâmica9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="B32:C36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
@@ -13936,9 +14992,9 @@
     <pivotField numFmtId="44" showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
-        <item h="1" x="1"/>
+        <item x="1"/>
         <item h="1" x="0"/>
-        <item x="2"/>
+        <item h="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -14385,1062 +15441,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{84005490-F2B6-45E1-A8C2-E59BAE3E3FBC}" name="tbl_easeasonpass_total" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="B21:C25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="15">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="281">
-        <item x="87"/>
-        <item x="61"/>
-        <item x="206"/>
-        <item x="275"/>
-        <item x="112"/>
-        <item x="228"/>
-        <item x="35"/>
-        <item x="253"/>
-        <item x="136"/>
-        <item x="3"/>
-        <item x="161"/>
-        <item x="185"/>
-        <item x="7"/>
-        <item x="88"/>
-        <item x="16"/>
-        <item x="186"/>
-        <item x="162"/>
-        <item x="276"/>
-        <item x="36"/>
-        <item x="254"/>
-        <item x="207"/>
-        <item x="137"/>
-        <item x="62"/>
-        <item x="9"/>
-        <item x="113"/>
-        <item x="229"/>
-        <item x="163"/>
-        <item x="15"/>
-        <item x="6"/>
-        <item x="63"/>
-        <item x="37"/>
-        <item x="230"/>
-        <item x="255"/>
-        <item x="277"/>
-        <item x="138"/>
-        <item x="89"/>
-        <item x="114"/>
-        <item x="17"/>
-        <item x="187"/>
-        <item x="90"/>
-        <item x="139"/>
-        <item x="18"/>
-        <item x="38"/>
-        <item x="64"/>
-        <item x="231"/>
-        <item x="208"/>
-        <item x="256"/>
-        <item x="278"/>
-        <item x="13"/>
-        <item x="115"/>
-        <item x="164"/>
-        <item x="91"/>
-        <item x="188"/>
-        <item x="19"/>
-        <item x="209"/>
-        <item x="116"/>
-        <item x="257"/>
-        <item x="279"/>
-        <item x="140"/>
-        <item x="65"/>
-        <item x="39"/>
-        <item x="92"/>
-        <item x="210"/>
-        <item x="141"/>
-        <item x="232"/>
-        <item x="258"/>
-        <item x="40"/>
-        <item x="66"/>
-        <item x="117"/>
-        <item x="5"/>
-        <item x="165"/>
-        <item x="14"/>
-        <item x="67"/>
-        <item x="211"/>
-        <item x="189"/>
-        <item x="259"/>
-        <item x="20"/>
-        <item x="93"/>
-        <item x="233"/>
-        <item x="41"/>
-        <item x="142"/>
-        <item x="166"/>
-        <item x="143"/>
-        <item x="94"/>
-        <item x="212"/>
-        <item x="167"/>
-        <item x="68"/>
-        <item x="42"/>
-        <item x="234"/>
-        <item x="118"/>
-        <item x="21"/>
-        <item x="260"/>
-        <item x="144"/>
-        <item x="190"/>
-        <item x="213"/>
-        <item x="168"/>
-        <item x="43"/>
-        <item x="235"/>
-        <item x="119"/>
-        <item x="95"/>
-        <item x="22"/>
-        <item x="69"/>
-        <item x="145"/>
-        <item x="191"/>
-        <item x="169"/>
-        <item x="120"/>
-        <item x="261"/>
-        <item x="96"/>
-        <item x="236"/>
-        <item x="0"/>
-        <item x="23"/>
-        <item x="44"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="97"/>
-        <item x="170"/>
-        <item x="262"/>
-        <item x="237"/>
-        <item x="146"/>
-        <item x="45"/>
-        <item x="24"/>
-        <item x="121"/>
-        <item x="12"/>
-        <item x="2"/>
-        <item x="192"/>
-        <item x="72"/>
-        <item x="263"/>
-        <item x="171"/>
-        <item x="238"/>
-        <item x="46"/>
-        <item x="98"/>
-        <item x="214"/>
-        <item x="147"/>
-        <item x="193"/>
-        <item x="264"/>
-        <item x="99"/>
-        <item x="172"/>
-        <item x="47"/>
-        <item x="122"/>
-        <item x="11"/>
-        <item x="239"/>
-        <item x="148"/>
-        <item x="215"/>
-        <item x="1"/>
-        <item x="25"/>
-        <item x="73"/>
-        <item x="123"/>
-        <item x="216"/>
-        <item x="265"/>
-        <item x="149"/>
-        <item x="240"/>
-        <item x="194"/>
-        <item x="26"/>
-        <item x="48"/>
-        <item x="173"/>
-        <item x="100"/>
-        <item x="74"/>
-        <item x="195"/>
-        <item x="174"/>
-        <item x="124"/>
-        <item x="241"/>
-        <item x="266"/>
-        <item x="49"/>
-        <item x="101"/>
-        <item x="150"/>
-        <item x="217"/>
-        <item x="75"/>
-        <item x="27"/>
-        <item x="151"/>
-        <item x="102"/>
-        <item x="218"/>
-        <item x="242"/>
-        <item x="267"/>
-        <item x="125"/>
-        <item x="50"/>
-        <item x="28"/>
-        <item x="76"/>
-        <item x="196"/>
-        <item x="175"/>
-        <item x="4"/>
-        <item x="126"/>
-        <item x="219"/>
-        <item x="268"/>
-        <item x="77"/>
-        <item x="51"/>
-        <item x="152"/>
-        <item x="243"/>
-        <item x="127"/>
-        <item x="103"/>
-        <item x="244"/>
-        <item x="29"/>
-        <item x="197"/>
-        <item x="176"/>
-        <item x="78"/>
-        <item x="269"/>
-        <item x="52"/>
-        <item x="153"/>
-        <item x="10"/>
-        <item x="79"/>
-        <item x="104"/>
-        <item x="30"/>
-        <item x="177"/>
-        <item x="220"/>
-        <item x="245"/>
-        <item x="270"/>
-        <item x="128"/>
-        <item x="8"/>
-        <item x="154"/>
-        <item x="198"/>
-        <item x="53"/>
-        <item x="31"/>
-        <item x="271"/>
-        <item x="246"/>
-        <item x="105"/>
-        <item x="178"/>
-        <item x="221"/>
-        <item x="80"/>
-        <item x="129"/>
-        <item x="155"/>
-        <item x="54"/>
-        <item x="199"/>
-        <item x="247"/>
-        <item x="55"/>
-        <item x="106"/>
-        <item x="179"/>
-        <item x="81"/>
-        <item x="156"/>
-        <item x="222"/>
-        <item x="200"/>
-        <item x="130"/>
-        <item x="248"/>
-        <item x="56"/>
-        <item x="223"/>
-        <item x="157"/>
-        <item x="131"/>
-        <item x="180"/>
-        <item x="201"/>
-        <item x="82"/>
-        <item x="107"/>
-        <item x="32"/>
-        <item x="158"/>
-        <item x="132"/>
-        <item x="202"/>
-        <item x="83"/>
-        <item x="181"/>
-        <item x="224"/>
-        <item x="249"/>
-        <item x="57"/>
-        <item x="108"/>
-        <item x="203"/>
-        <item x="133"/>
-        <item x="225"/>
-        <item x="109"/>
-        <item x="272"/>
-        <item x="182"/>
-        <item x="84"/>
-        <item x="250"/>
-        <item x="58"/>
-        <item x="110"/>
-        <item x="59"/>
-        <item x="183"/>
-        <item x="226"/>
-        <item x="85"/>
-        <item x="273"/>
-        <item x="159"/>
-        <item x="33"/>
-        <item x="204"/>
-        <item x="251"/>
-        <item x="134"/>
-        <item x="205"/>
-        <item x="60"/>
-        <item x="184"/>
-        <item x="160"/>
-        <item x="274"/>
-        <item x="227"/>
-        <item x="135"/>
-        <item x="86"/>
-        <item x="34"/>
-        <item x="252"/>
-        <item x="111"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="295">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
-        <item h="1" x="1"/>
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="369">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="6" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Soma de EA Play Season Pass" fld="8" baseField="2" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Subscription_Type" xr10:uid="{C1AC8210-3CE9-44E0-963C-9922D0D2DE4E}" sourceName="Subscription Type">
   <pivotTables>
@@ -15452,9 +15452,9 @@
   <data>
     <tabular pivotCacheId="1765956580">
       <items count="3">
-        <i x="1"/>
+        <i x="1" s="1"/>
         <i x="0"/>
-        <i x="2" s="1"/>
+        <i x="2"/>
       </items>
     </tabular>
   </data>
@@ -28204,7 +28204,7 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -28220,7 +28220,7 @@
         <v>23</v>
       </c>
       <c r="C12" s="13">
-        <v>806</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -28228,7 +28228,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="13">
-        <v>1502</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
@@ -28236,7 +28236,7 @@
         <v>310</v>
       </c>
       <c r="C14" s="13">
-        <v>2308</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -28249,7 +28249,7 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
@@ -28281,7 +28281,7 @@
         <v>18</v>
       </c>
       <c r="C24" s="15">
-        <v>990</v>
+        <v>600</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
@@ -28289,12 +28289,12 @@
         <v>310</v>
       </c>
       <c r="C25" s="15">
-        <v>990</v>
+        <v>600</v>
       </c>
       <c r="E25" s="17">
         <f>GETPIVOTDATA("EA Play Season Pass
 Price",$B$21)</f>
-        <v>990</v>
+        <v>600</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
@@ -28307,7 +28307,7 @@
         <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
@@ -28331,7 +28331,7 @@
         <v>26</v>
       </c>
       <c r="C34" s="13">
-        <v>480</v>
+        <v>540</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
@@ -28339,7 +28339,7 @@
         <v>18</v>
       </c>
       <c r="C35" s="13">
-        <v>660</v>
+        <v>400</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
@@ -28347,11 +28347,11 @@
         <v>310</v>
       </c>
       <c r="C36" s="13">
-        <v>1140</v>
+        <v>940</v>
       </c>
       <c r="E36" s="17">
         <f>GETPIVOTDATA("Minecraft Season Pass Price",$B$32)</f>
-        <v>1140</v>
+        <v>940</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
@@ -28364,7 +28364,7 @@
         <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
@@ -28388,7 +28388,7 @@
         <v>23</v>
       </c>
       <c r="C44" s="15">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
@@ -28404,7 +28404,7 @@
         <v>310</v>
       </c>
       <c r="C46" s="15">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -28866,6 +28866,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="851b35d3-0456-4d6a-bc2f-da927e91d158">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="19483571-f922-4e8e-9c1c-26f0a2252132" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010001E48B58A68BE64E9120D347E3E06B3A" ma:contentTypeVersion="19" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="2f90046ec77328b7f86417d2e03b3d33">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="851b35d3-0456-4d6a-bc2f-da927e91d158" xmlns:ns3="19483571-f922-4e8e-9c1c-26f0a2252132" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c815006ac2d4f05ee97fdd57e40d8e38" ns2:_="" ns3:_="">
     <xsd:import namespace="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
@@ -29120,27 +29140,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="851b35d3-0456-4d6a-bc2f-da927e91d158">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="19483571-f922-4e8e-9c1c-26f0a2252132" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B26109AA-4A63-4ABA-9238-1315B3F7EEAB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499037E4-A6E4-45D3-B93A-3D2B6A0C2B33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
+    <ds:schemaRef ds:uri="19483571-f922-4e8e-9c1c-26f0a2252132"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6A6278B-0476-46CE-815A-3F41F4371156}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -29157,23 +29176,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499037E4-A6E4-45D3-B93A-3D2B6A0C2B33}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
-    <ds:schemaRef ds:uri="19483571-f922-4e8e-9c1c-26f0a2252132"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B26109AA-4A63-4ABA-9238-1315B3F7EEAB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>